--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,9 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
-    <sheet name="inputdisp_overlap" sheetId="3" r:id="rId2"/>
-    <sheet name="inputdisp_overlap_mat" sheetId="2" r:id="rId3"/>
-    <sheet name="endofpipe" sheetId="4" r:id="rId4"/>
-    <sheet name="inputprices" sheetId="5" r:id="rId5"/>
+    <sheet name="endofpipe" sheetId="4" r:id="rId2"/>
+    <sheet name="inputprices" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,69 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
-  <si>
-    <t>technum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>unit_cost</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>EH</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>overlap_1_othertechs</t>
-  </si>
-  <si>
-    <t>overlap_1_potshare</t>
-  </si>
-  <si>
-    <t>overlap_2_potshare</t>
-  </si>
-  <si>
-    <t>overlap_2_othertechs</t>
-  </si>
-  <si>
-    <t>overlap_3_potshare</t>
-  </si>
-  <si>
-    <t>overlap_3_othertechs</t>
-  </si>
-  <si>
-    <t>overlap_4_potshare</t>
-  </si>
-  <si>
-    <t>overlap_4_othertechs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunne også være overlap_1_pot, således at man bare skriver potentialet i EL-termer direkte, i stedet for "share af teknologiens potentiale". Så i stedet for de første 0.5 herover, så skriver man blot </t>
-  </si>
-  <si>
-    <t>0.05, da vi har 0.1 * 0.5 = 0.05</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>Alternativ, hvor de ikke ligger oveni i hinanden. Fra matrix-formen, kan man ikke regne ud hvilken som er korrekt, derfor er matrix-formen ikke tilstrækkelig.</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>EL_overlap_1_potshare</t>
@@ -499,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,48 +450,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -565,7 +503,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -575,393 +513,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="11" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0.25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.25</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0.25</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0.125</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0.125</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,48 +531,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1039,7 +595,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1065,12 +621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,15 +636,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1096,7 +652,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1104,7 +660,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1112,7 +668,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>0.02</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>0.02</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>

--- a/examples/Abatement/Data/techdata_dors_2.xlsx
+++ b/examples/Abatement/Data/techdata_dors_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
